--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
   <si>
     <t>S.No</t>
   </si>
@@ -67,7 +67,7 @@
     <t>clear</t>
   </si>
   <si>
-    <t>9</t>
+    <t>2</t>
   </si>
   <si>
     <t>Temperature</t>
@@ -76,9 +76,15 @@
     <t>°.</t>
   </si>
   <si>
+    <t>---</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>cost</t>
+  </si>
+  <si>
     <t>Turbidity</t>
   </si>
   <si>
@@ -250,7 +256,7 @@
     <t>0.7</t>
   </si>
   <si>
-    <t>14</t>
+    <t>456</t>
   </si>
   <si>
     <t>Sulfite</t>
@@ -259,7 +265,7 @@
     <t>&lt;10 mg/l</t>
   </si>
   <si>
-    <t>15</t>
+    <t>75</t>
   </si>
   <si>
     <t>Nitrite as NO2</t>
@@ -292,7 +298,7 @@
     <t>0.3 mg/l</t>
   </si>
   <si>
-    <t>18</t>
+    <t>18 N8</t>
   </si>
   <si>
     <t>Dissolved Oxygen (DO)</t>
@@ -320,9 +326,6 @@
   </si>
   <si>
     <t>Nil/100 ml</t>
-  </si>
-  <si>
-    <t>Nil/100 ml 135/0ml~tl@ml</t>
   </si>
   <si>
     <t>20</t>
@@ -736,7 +739,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -794,145 +797,145 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -943,39 +946,39 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -989,85 +992,85 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1081,105 +1084,105 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>85</v>
-      </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1196,19 +1199,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -1219,39 +1222,39 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1265,19 +1268,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1288,19 +1291,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
